--- a/08/datasaurus_statistics.xlsx
+++ b/08/datasaurus_statistics.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C747A0E-14B6-FE43-9204-A29F3350A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CEC653-5C4D-4B55-80AB-C52D6AFA4FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2540" windowWidth="22960" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2540" windowWidth="22960" windowHeight="13400" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dino" sheetId="5" r:id="rId1"/>
+    <sheet name="Statistics" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,19 +37,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Skew</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -201,11 +232,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -293,16 +337,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
+        <bottom style="thick">
           <color rgb="FFFFFFFF"/>
-        </left>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
+        <left style="thin">
           <color rgb="FFFFFFFF"/>
-        </bottom>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -354,13 +398,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA53A75C-48B8-4003-8022-C9C757A09D48}" name="Dino" displayName="Dino" ref="A1:B143" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA53A75C-48B8-4003-8022-C9C757A09D48}" name="Dino" displayName="Dino" ref="A1:B143" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:B143" xr:uid="{BA53A75C-48B8-4003-8022-C9C757A09D48}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{26E0C2A9-7EC1-4DDA-B18A-41774B1CAB52}" name="x" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C498DF61-4A76-4A4A-94A0-9DD1CB1A4D1A}" name="y" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{26E0C2A9-7EC1-4DDA-B18A-41774B1CAB52}" name="x" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C498DF61-4A76-4A4A-94A0-9DD1CB1A4D1A}" name="y" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AF9CC789-4609-45CA-B615-956998AA7F24}" name="Statistics" displayName="Statistics" ref="A1:C10" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C10" xr:uid="{AF9CC789-4609-45CA-B615-956998AA7F24}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D03839ED-9E09-4B0D-83B3-926E7FD2E1AA}" name="Measure" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7C5F3DBF-1DE2-4EAE-8828-F839FA263633}" name="x" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{AA304A7D-DC1C-4B87-831A-F500BACF33B6}" name="y" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -684,11 +740,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -696,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7">
         <v>55.384599999999999</v>
       </c>
@@ -704,7 +762,7 @@
         <v>97.179500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="8">
         <v>51.538499999999999</v>
       </c>
@@ -712,7 +770,7 @@
         <v>96.025599999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="7">
         <v>46.153799999999997</v>
       </c>
@@ -720,7 +778,7 @@
         <v>94.487200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="8">
         <v>42.820500000000003</v>
       </c>
@@ -728,7 +786,7 @@
         <v>91.410300000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="7">
         <v>40.769199999999998</v>
       </c>
@@ -736,7 +794,7 @@
         <v>88.333299999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="8">
         <v>38.7179</v>
       </c>
@@ -744,7 +802,7 @@
         <v>84.871799999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="7">
         <v>35.640999999999998</v>
       </c>
@@ -752,7 +810,7 @@
         <v>79.871799999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="8">
         <v>33.076900000000002</v>
       </c>
@@ -760,7 +818,7 @@
         <v>77.564099999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="7">
         <v>28.974399999999999</v>
       </c>
@@ -768,7 +826,7 @@
         <v>74.487200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="8">
         <v>26.1538</v>
       </c>
@@ -776,7 +834,7 @@
         <v>71.410300000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="7">
         <v>23.076899999999998</v>
       </c>
@@ -784,7 +842,7 @@
         <v>66.410300000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="8">
         <v>22.307700000000001</v>
       </c>
@@ -792,7 +850,7 @@
         <v>61.794899999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="7">
         <v>22.307700000000001</v>
       </c>
@@ -800,7 +858,7 @@
         <v>57.179499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="8">
         <v>23.333300000000001</v>
       </c>
@@ -808,7 +866,7 @@
         <v>52.948700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="7">
         <v>25.897400000000001</v>
       </c>
@@ -816,7 +874,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="8">
         <v>29.487200000000001</v>
       </c>
@@ -824,7 +882,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="7">
         <v>32.820500000000003</v>
       </c>
@@ -832,7 +890,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="8">
         <v>35.384599999999999</v>
       </c>
@@ -840,7 +898,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="7">
         <v>40.256399999999999</v>
       </c>
@@ -848,7 +906,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="8">
         <v>44.102600000000002</v>
       </c>
@@ -856,7 +914,7 @@
         <v>52.948700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="7">
         <v>46.666699999999999</v>
       </c>
@@ -864,7 +922,7 @@
         <v>54.102600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="8">
         <v>50</v>
       </c>
@@ -872,7 +930,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="7">
         <v>53.076900000000002</v>
       </c>
@@ -880,7 +938,7 @@
         <v>55.640999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="8">
         <v>56.666699999999999</v>
       </c>
@@ -888,7 +946,7 @@
         <v>56.025599999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="7">
         <v>59.230800000000002</v>
       </c>
@@ -896,7 +954,7 @@
         <v>57.948700000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="8">
         <v>61.2821</v>
       </c>
@@ -904,7 +962,7 @@
         <v>62.179499999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="7">
         <v>61.538499999999999</v>
       </c>
@@ -912,7 +970,7 @@
         <v>66.410300000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="8">
         <v>61.794899999999998</v>
       </c>
@@ -920,7 +978,7 @@
         <v>69.102599999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="7">
         <v>57.435899999999997</v>
       </c>
@@ -928,7 +986,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="8">
         <v>54.8718</v>
       </c>
@@ -936,7 +994,7 @@
         <v>49.8718</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="7">
         <v>52.564100000000003</v>
       </c>
@@ -944,7 +1002,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="8">
         <v>48.205100000000002</v>
       </c>
@@ -952,7 +1010,7 @@
         <v>38.333300000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="7">
         <v>49.487200000000001</v>
       </c>
@@ -960,7 +1018,7 @@
         <v>42.179499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="8">
         <v>51.025599999999997</v>
       </c>
@@ -968,7 +1026,7 @@
         <v>44.102600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="7">
         <v>45.384599999999999</v>
       </c>
@@ -976,7 +1034,7 @@
         <v>36.410299999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="8">
         <v>42.820500000000003</v>
       </c>
@@ -984,7 +1042,7 @@
         <v>32.564100000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="7">
         <v>38.7179</v>
       </c>
@@ -992,7 +1050,7 @@
         <v>31.410299999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="8">
         <v>35.1282</v>
       </c>
@@ -1000,7 +1058,7 @@
         <v>30.256399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="7">
         <v>32.564100000000003</v>
       </c>
@@ -1008,7 +1066,7 @@
         <v>32.179499999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="8">
         <v>30</v>
       </c>
@@ -1016,7 +1074,7 @@
         <v>36.794899999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="7">
         <v>33.589700000000001</v>
       </c>
@@ -1024,7 +1082,7 @@
         <v>41.410299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="8">
         <v>36.666699999999999</v>
       </c>
@@ -1032,7 +1090,7 @@
         <v>45.640999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="7">
         <v>38.205100000000002</v>
       </c>
@@ -1040,7 +1098,7 @@
         <v>49.102600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="8">
         <v>29.743600000000001</v>
       </c>
@@ -1048,7 +1106,7 @@
         <v>36.025599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="7">
         <v>29.743600000000001</v>
       </c>
@@ -1056,7 +1114,7 @@
         <v>32.179499999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="8">
         <v>30</v>
       </c>
@@ -1064,7 +1122,7 @@
         <v>29.102599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="7">
         <v>32.051299999999998</v>
       </c>
@@ -1072,7 +1130,7 @@
         <v>26.794899999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="8">
         <v>35.897399999999998</v>
       </c>
@@ -1080,7 +1138,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="7">
         <v>41.025599999999997</v>
       </c>
@@ -1088,7 +1146,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="8">
         <v>44.102600000000002</v>
       </c>
@@ -1096,7 +1154,7 @@
         <v>25.640999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="7">
         <v>47.179499999999997</v>
       </c>
@@ -1104,7 +1162,7 @@
         <v>28.718</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="8">
         <v>49.487200000000001</v>
       </c>
@@ -1112,7 +1170,7 @@
         <v>31.410299999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="7">
         <v>51.538499999999999</v>
       </c>
@@ -1120,7 +1178,7 @@
         <v>34.8718</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="8">
         <v>53.589700000000001</v>
       </c>
@@ -1128,7 +1186,7 @@
         <v>37.564100000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="7">
         <v>55.1282</v>
       </c>
@@ -1136,7 +1194,7 @@
         <v>40.640999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="8">
         <v>56.666699999999999</v>
       </c>
@@ -1144,7 +1202,7 @@
         <v>42.179499999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="7">
         <v>59.230800000000002</v>
       </c>
@@ -1152,7 +1210,7 @@
         <v>44.487200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="8">
         <v>62.307699999999997</v>
       </c>
@@ -1160,7 +1218,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="7">
         <v>64.871799999999993</v>
       </c>
@@ -1168,7 +1226,7 @@
         <v>46.794899999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="8">
         <v>67.948700000000002</v>
       </c>
@@ -1176,7 +1234,7 @@
         <v>47.948700000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="7">
         <v>70.512799999999999</v>
       </c>
@@ -1184,7 +1242,7 @@
         <v>53.718000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="8">
         <v>71.538499999999999</v>
       </c>
@@ -1192,7 +1250,7 @@
         <v>60.640999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="7">
         <v>71.538499999999999</v>
       </c>
@@ -1200,7 +1258,7 @@
         <v>64.487200000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="8">
         <v>69.487200000000001</v>
       </c>
@@ -1208,7 +1266,7 @@
         <v>69.487200000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="7">
         <v>46.923099999999998</v>
       </c>
@@ -1216,7 +1274,7 @@
         <v>79.871799999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="8">
         <v>48.205100000000002</v>
       </c>
@@ -1224,7 +1282,7 @@
         <v>84.102599999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="7">
         <v>50</v>
       </c>
@@ -1232,7 +1290,7 @@
         <v>85.256399999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="8">
         <v>53.076900000000002</v>
       </c>
@@ -1240,7 +1298,7 @@
         <v>85.256399999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="7">
         <v>55.384599999999999</v>
       </c>
@@ -1248,7 +1306,7 @@
         <v>86.025599999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="8">
         <v>56.666699999999999</v>
       </c>
@@ -1256,7 +1314,7 @@
         <v>86.025599999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="7">
         <v>56.153799999999997</v>
       </c>
@@ -1264,7 +1322,7 @@
         <v>82.948700000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="8">
         <v>53.846200000000003</v>
       </c>
@@ -1272,7 +1330,7 @@
         <v>80.641000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="7">
         <v>51.2821</v>
       </c>
@@ -1280,7 +1338,7 @@
         <v>78.718000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="8">
         <v>50</v>
       </c>
@@ -1288,7 +1346,7 @@
         <v>78.718000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="7">
         <v>47.948700000000002</v>
       </c>
@@ -1296,7 +1354,7 @@
         <v>77.564099999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="8">
         <v>29.743600000000001</v>
       </c>
@@ -1304,7 +1362,7 @@
         <v>59.8718</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="7">
         <v>29.743600000000001</v>
       </c>
@@ -1312,7 +1370,7 @@
         <v>62.179499999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="8">
         <v>31.2821</v>
       </c>
@@ -1320,7 +1378,7 @@
         <v>62.564100000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="7">
         <v>57.948700000000002</v>
       </c>
@@ -1328,7 +1386,7 @@
         <v>99.487200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="8">
         <v>61.794899999999998</v>
       </c>
@@ -1336,7 +1394,7 @@
         <v>99.102599999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="7">
         <v>64.871799999999993</v>
       </c>
@@ -1344,7 +1402,7 @@
         <v>97.564099999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="8">
         <v>68.461500000000001</v>
       </c>
@@ -1352,7 +1410,7 @@
         <v>94.102599999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="7">
         <v>70.769199999999998</v>
       </c>
@@ -1360,7 +1418,7 @@
         <v>91.025599999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="8">
         <v>72.051299999999998</v>
       </c>
@@ -1368,7 +1426,7 @@
         <v>86.410300000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="7">
         <v>73.846199999999996</v>
       </c>
@@ -1376,7 +1434,7 @@
         <v>83.333299999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="8">
         <v>75.128200000000007</v>
       </c>
@@ -1384,7 +1442,7 @@
         <v>79.102599999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" s="7">
         <v>76.666700000000006</v>
       </c>
@@ -1392,7 +1450,7 @@
         <v>75.256399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" s="8">
         <v>77.692300000000003</v>
       </c>
@@ -1400,7 +1458,7 @@
         <v>71.410300000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="7">
         <v>79.743600000000001</v>
       </c>
@@ -1408,7 +1466,7 @@
         <v>66.794899999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="8">
         <v>81.794899999999998</v>
       </c>
@@ -1416,7 +1474,7 @@
         <v>60.256399999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="7">
         <v>83.333299999999994</v>
       </c>
@@ -1424,7 +1482,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="8">
         <v>85.128200000000007</v>
       </c>
@@ -1432,7 +1490,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="7">
         <v>86.410300000000007</v>
       </c>
@@ -1440,7 +1498,7 @@
         <v>47.564100000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="8">
         <v>87.948700000000002</v>
       </c>
@@ -1448,7 +1506,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="7">
         <v>89.487200000000001</v>
       </c>
@@ -1456,7 +1514,7 @@
         <v>42.564100000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="8">
         <v>93.333299999999994</v>
       </c>
@@ -1464,7 +1522,7 @@
         <v>39.8718</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="7">
         <v>95.384600000000006</v>
       </c>
@@ -1472,7 +1530,7 @@
         <v>36.794899999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="8">
         <v>98.205100000000002</v>
       </c>
@@ -1480,7 +1538,7 @@
         <v>33.718000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="7">
         <v>56.666699999999999</v>
       </c>
@@ -1488,7 +1546,7 @@
         <v>40.640999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="8">
         <v>59.230800000000002</v>
       </c>
@@ -1496,7 +1554,7 @@
         <v>38.333300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="7">
         <v>60.769199999999998</v>
       </c>
@@ -1504,7 +1562,7 @@
         <v>33.718000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="8">
         <v>63.076900000000002</v>
       </c>
@@ -1512,7 +1570,7 @@
         <v>29.102599999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="7">
         <v>64.102599999999995</v>
       </c>
@@ -1520,7 +1578,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="8">
         <v>64.358999999999995</v>
       </c>
@@ -1528,7 +1586,7 @@
         <v>24.102599999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="7">
         <v>74.358999999999995</v>
       </c>
@@ -1536,7 +1594,7 @@
         <v>22.948699999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="8">
         <v>71.2821</v>
       </c>
@@ -1544,7 +1602,7 @@
         <v>22.948699999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" s="7">
         <v>67.948700000000002</v>
       </c>
@@ -1552,7 +1610,7 @@
         <v>22.179500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" s="8">
         <v>65.897400000000005</v>
       </c>
@@ -1560,7 +1618,7 @@
         <v>20.256399999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" s="7">
         <v>63.076900000000002</v>
       </c>
@@ -1568,7 +1626,7 @@
         <v>19.102599999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" s="8">
         <v>61.2821</v>
       </c>
@@ -1576,7 +1634,7 @@
         <v>19.102599999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" s="7">
         <v>58.7179</v>
       </c>
@@ -1584,7 +1642,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" s="8">
         <v>55.1282</v>
       </c>
@@ -1592,7 +1650,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" s="7">
         <v>52.307699999999997</v>
       </c>
@@ -1600,7 +1658,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" s="8">
         <v>49.743600000000001</v>
       </c>
@@ -1608,7 +1666,7 @@
         <v>17.5641</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" s="7">
         <v>47.435899999999997</v>
       </c>
@@ -1616,7 +1674,7 @@
         <v>16.025600000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" s="8">
         <v>44.8718</v>
       </c>
@@ -1624,7 +1682,7 @@
         <v>13.718</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" s="7">
         <v>48.7179</v>
       </c>
@@ -1632,7 +1690,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" s="8">
         <v>51.2821</v>
       </c>
@@ -1640,7 +1698,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" s="7">
         <v>54.102600000000002</v>
       </c>
@@ -1648,7 +1706,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" s="8">
         <v>56.153799999999997</v>
       </c>
@@ -1656,7 +1714,7 @@
         <v>14.102600000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" s="7">
         <v>52.051299999999998</v>
       </c>
@@ -1664,7 +1722,7 @@
         <v>12.5641</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" s="8">
         <v>48.7179</v>
       </c>
@@ -1672,7 +1730,7 @@
         <v>11.025600000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" s="7">
         <v>47.179499999999997</v>
       </c>
@@ -1680,7 +1738,7 @@
         <v>9.8718000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" s="8">
         <v>46.153799999999997</v>
       </c>
@@ -1688,7 +1746,7 @@
         <v>6.0255999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" s="7">
         <v>50.512799999999999</v>
       </c>
@@ -1696,7 +1754,7 @@
         <v>9.4871999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" s="8">
         <v>53.846200000000003</v>
       </c>
@@ -1704,7 +1762,7 @@
         <v>10.256399999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" s="7">
         <v>57.435899999999997</v>
       </c>
@@ -1712,7 +1770,7 @@
         <v>10.256399999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="8">
         <v>60</v>
       </c>
@@ -1720,7 +1778,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="7">
         <v>64.102599999999995</v>
       </c>
@@ -1728,7 +1786,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="8">
         <v>66.923100000000005</v>
       </c>
@@ -1736,7 +1794,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="7">
         <v>71.2821</v>
       </c>
@@ -1744,7 +1802,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="8">
         <v>74.358999999999995</v>
       </c>
@@ -1752,7 +1810,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" s="7">
         <v>78.205100000000002</v>
       </c>
@@ -1760,7 +1818,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" s="8">
         <v>67.948700000000002</v>
       </c>
@@ -1768,7 +1826,7 @@
         <v>8.718</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="7">
         <v>68.461500000000001</v>
       </c>
@@ -1776,7 +1834,7 @@
         <v>5.2564000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="8">
         <v>68.205100000000002</v>
       </c>
@@ -1784,7 +1842,7 @@
         <v>2.9487000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="7">
         <v>37.692300000000003</v>
       </c>
@@ -1792,7 +1850,7 @@
         <v>25.769200000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="8">
         <v>39.487200000000001</v>
       </c>
@@ -1800,7 +1858,7 @@
         <v>25.384599999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" s="7">
         <v>91.2821</v>
       </c>
@@ -1808,7 +1866,7 @@
         <v>41.538499999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" s="8">
         <v>50</v>
       </c>
@@ -1816,7 +1874,7 @@
         <v>95.769199999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="7">
         <v>47.948700000000002</v>
       </c>
@@ -1824,7 +1882,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="9">
         <v>44.102600000000002</v>
       </c>
@@ -1832,9 +1890,160 @@
         <v>92.692300000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2DB6C-2AE6-45D8-8807-6AA87AE1A3ED}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10">
+        <f>AVERAGE(Dino[x])</f>
+        <v>54.263273239436643</v>
+      </c>
+      <c r="C2" s="10">
+        <f>AVERAGE(Dino[y])</f>
+        <v>47.832252816901374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10">
+        <f>MEDIAN(Dino[x])</f>
+        <v>53.333300000000001</v>
+      </c>
+      <c r="C3" s="10">
+        <f>MEDIAN(Dino[y])</f>
+        <v>46.025599999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
+        <f>_xlfn.MODE.SNGL(Dino[x])</f>
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
+        <f>_xlfn.MODE.SNGL(Dino[y])</f>
+        <v>10.641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
+        <f>MAX(Dino[x])-MIN(Dino[x])</f>
+        <v>75.897400000000005</v>
+      </c>
+      <c r="C5" s="10">
+        <f>MAX(Dino[y])-MIN(Dino[y])</f>
+        <v>96.538499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10">
+        <f>_xlfn.VAR.S(Dino[x])</f>
+        <v>281.06998759175769</v>
+      </c>
+      <c r="C6" s="10">
+        <f>_xlfn.VAR.S(Dino[y])</f>
+        <v>725.51596100421591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
+        <f>_xlfn.STDEV.S(Dino[x])</f>
+        <v>16.765142039116689</v>
+      </c>
+      <c r="C7" s="10">
+        <f>_xlfn.STDEV.S(Dino[y])</f>
+        <v>26.93540348693919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10">
+        <f>_xlfn.QUARTILE.INC(Dino[x],3)-_xlfn.QUARTILE.INC(Dino[x],1)</f>
+        <v>20.640999999999984</v>
+      </c>
+      <c r="C8" s="10">
+        <f>_xlfn.QUARTILE.INC(Dino[y],3)-_xlfn.QUARTILE.INC(Dino[y],1)</f>
+        <v>43.237224999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <f>SKEW(Dino[x])</f>
+        <v>0.28678726708571156</v>
+      </c>
+      <c r="C9" s="10">
+        <f>SKEW(Dino[y])</f>
+        <v>0.25257129328166217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <f>KURT(Dino[x])</f>
+        <v>-0.2122947703059177</v>
+      </c>
+      <c r="C10" s="10">
+        <f>KURT(Dino[y])</f>
+        <v>-1.0299390175436578</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
